--- a/documentation/Time Journal.xlsx
+++ b/documentation/Time Journal.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="54">
   <si>
     <t>Sprint 0</t>
   </si>
@@ -119,6 +119,70 @@
   </si>
   <si>
     <t>Setup documentation and README updates, and more authentication work.</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Finally fully fixed authentication with google</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">Added new domain, </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>waveformreviews.net</t>
+    </r>
+  </si>
+  <si>
+    <t>Added backend user routes and a new profile page</t>
+  </si>
+  <si>
+    <t>12 hours</t>
+  </si>
+  <si>
+    <t>Added review cards, better artist pages, helmet meta tags, search, and better profile pages</t>
+  </si>
+  <si>
+    <t>Added create review button and modal, and search bugs fixed</t>
+  </si>
+  <si>
+    <t>Added better nav profile drop down and reorganized code base</t>
+  </si>
+  <si>
+    <t>Added create profile page</t>
+  </si>
+  <si>
+    <t>Added support for editing existing reviews</t>
+  </si>
+  <si>
+    <t>Added proper components and footer and improved on review cards with flexbox</t>
+  </si>
+  <si>
+    <t>10 hours</t>
+  </si>
+  <si>
+    <t>Added 404 page, tos/privacy policy pages, dynamic user scores, generalized album/song pages, fixed mobile issues, and added a support page</t>
+  </si>
+  <si>
+    <t>Added specific review page, better filtering, and profile picture stuff</t>
+  </si>
+  <si>
+    <t>Redesigned music/reviews pages, made sidebars more visible, made profile pages display proper stuff, added user tab and user cards, and added backblaze support</t>
+  </si>
+  <si>
+    <t>Added genre pages and fixed a lot of other quirks</t>
+  </si>
+  <si>
+    <t>Fixed meta tag issues</t>
+  </si>
+  <si>
+    <t>Added comments to reviews, cleaned up some page stuff, made all the scores dynamic, fixed creating a profile</t>
   </si>
 </sst>
 </file>
@@ -128,7 +192,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -146,6 +210,10 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -161,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -182,6 +250,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -401,7 +472,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="10.38"/>
     <col customWidth="1" min="2" max="2" width="11.38"/>
-    <col customWidth="1" min="3" max="3" width="64.25"/>
+    <col customWidth="1" min="3" max="3" width="123.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1043,7 +1114,9 @@
       <c r="P28" s="2"/>
     </row>
     <row r="29">
-      <c r="A29" s="2"/>
+      <c r="A29" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1061,9 +1134,15 @@
       <c r="P29" s="2"/>
     </row>
     <row r="30">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+      <c r="A30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -1079,9 +1158,15 @@
       <c r="P30" s="2"/>
     </row>
     <row r="31">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+      <c r="A31" s="5">
+        <v>45736.0</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -1097,9 +1182,15 @@
       <c r="P31" s="2"/>
     </row>
     <row r="32">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
+      <c r="A32" s="5">
+        <v>45737.0</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -1115,9 +1206,15 @@
       <c r="P32" s="2"/>
     </row>
     <row r="33">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+      <c r="A33" s="5">
+        <v>45738.0</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -1133,9 +1230,15 @@
       <c r="P33" s="2"/>
     </row>
     <row r="34">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
+      <c r="A34" s="5">
+        <v>45740.0</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -1151,9 +1254,15 @@
       <c r="P34" s="2"/>
     </row>
     <row r="35">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
+      <c r="A35" s="5">
+        <v>45741.0</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -1169,9 +1278,15 @@
       <c r="P35" s="2"/>
     </row>
     <row r="36">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
+      <c r="A36" s="5">
+        <v>45742.0</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -1187,9 +1302,15 @@
       <c r="P36" s="2"/>
     </row>
     <row r="37">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
+      <c r="A37" s="5">
+        <v>45742.0</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -1205,9 +1326,15 @@
       <c r="P37" s="2"/>
     </row>
     <row r="38">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
+      <c r="A38" s="5">
+        <v>45743.0</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -1223,9 +1350,15 @@
       <c r="P38" s="2"/>
     </row>
     <row r="39">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
+      <c r="A39" s="5">
+        <v>45749.0</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -1241,9 +1374,15 @@
       <c r="P39" s="2"/>
     </row>
     <row r="40">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
+      <c r="A40" s="5">
+        <v>45753.0</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -1259,9 +1398,15 @@
       <c r="P40" s="2"/>
     </row>
     <row r="41">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
+      <c r="A41" s="5">
+        <v>45755.0</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -1277,9 +1422,15 @@
       <c r="P41" s="2"/>
     </row>
     <row r="42">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
+      <c r="A42" s="5">
+        <v>45756.0</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -1295,9 +1446,15 @@
       <c r="P42" s="2"/>
     </row>
     <row r="43">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
+      <c r="A43" s="5">
+        <v>45759.0</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -1313,9 +1470,15 @@
       <c r="P43" s="2"/>
     </row>
     <row r="44">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
+      <c r="A44" s="5">
+        <v>45761.0</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -1331,9 +1494,15 @@
       <c r="P44" s="2"/>
     </row>
     <row r="45">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
+      <c r="A45" s="5">
+        <v>45763.0</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -1817,6 +1986,9 @@
       <c r="P71" s="2"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="C32"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>